--- a/combinazioni.xlsx
+++ b/combinazioni.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuordy\Desktop\bigdataGIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikel_000\Desktop\BigDataRepository\bigdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{949313EE-21E0-401E-A51F-0129065F63AE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC12C22D-893D-414F-91AB-4AF7CCFA11D8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8208" xr2:uid="{19E8BCE0-1A8A-4E1D-8301-A7B8BD002530}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8205" xr2:uid="{19E8BCE0-1A8A-4E1D-8301-A7B8BD002530}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -431,15 +431,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A25896-6895-47A1-9A88-05262ED16FB9}">
-  <dimension ref="A3:BJ6"/>
+  <dimension ref="A3:BK6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AZ7" sqref="AZ7"/>
+    <sheetView tabSelected="1" topLeftCell="AB3" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,7 +525,7 @@
         <v>0.2</v>
       </c>
       <c r="AC3" s="3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD3" s="3">
         <v>0.3</v>
@@ -549,7 +549,7 @@
         <v>0.3</v>
       </c>
       <c r="AK3" s="3">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AL3" s="3">
         <v>0.4</v>
@@ -563,14 +563,14 @@
       <c r="AO3" s="3">
         <v>0.4</v>
       </c>
-      <c r="AP3" s="4">
+      <c r="AP3" s="3">
         <v>0.4</v>
       </c>
       <c r="AQ3" s="4">
         <v>0.4</v>
       </c>
       <c r="AR3" s="4">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AS3" s="4">
         <v>0.5</v>
@@ -588,7 +588,7 @@
         <v>0.5</v>
       </c>
       <c r="AX3" s="4">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AY3" s="4">
         <v>0.6</v>
@@ -603,7 +603,7 @@
         <v>0.6</v>
       </c>
       <c r="BC3" s="4">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="BD3" s="4">
         <v>0.7</v>
@@ -612,7 +612,7 @@
         <v>0.7</v>
       </c>
       <c r="BF3" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="BG3" s="4">
         <v>0.8</v>
@@ -621,13 +621,16 @@
         <v>0.8</v>
       </c>
       <c r="BI3" s="4">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="BJ3" s="4">
         <v>0.9</v>
       </c>
+      <c r="BK3" s="4">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -707,115 +710,118 @@
         <v>0.5</v>
       </c>
       <c r="AA4" s="3">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AB4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AC4" s="3">
         <v>0.8</v>
       </c>
-      <c r="AC4" s="3">
-        <v>0</v>
-      </c>
       <c r="AD4" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AF4" s="3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AG4" s="3">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AH4" s="3">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AI4" s="3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AJ4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AK4" s="3">
         <v>0.7</v>
       </c>
-      <c r="AK4" s="3">
-        <v>0</v>
-      </c>
       <c r="AL4" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AN4" s="3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AO4" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="AP4" s="4">
-        <v>0.5</v>
+        <v>0.3</v>
+      </c>
+      <c r="AP4" s="3">
+        <v>0.4</v>
       </c>
       <c r="AQ4" s="4">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR4" s="4">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AS4" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="4">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AU4" s="4">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AV4" s="4">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AW4" s="4">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AX4" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AY4" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="4">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="BA4" s="4">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="BB4" s="4">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="BC4" s="4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="BD4" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="BE4" s="4">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BF4" s="4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="BG4" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="BH4" s="4">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="BI4" s="4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="BJ4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -895,122 +901,125 @@
         <v>0.3</v>
       </c>
       <c r="AA5" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AB5" s="3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AC5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="3">
         <v>0.7</v>
       </c>
-      <c r="AD5" s="3">
-        <v>0.6</v>
-      </c>
       <c r="AE5" s="3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AF5" s="3">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AG5" s="3">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AH5" s="3">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AI5" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AJ5" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AK5" s="3">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AM5" s="3">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AN5" s="3">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AO5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AP5" s="4">
-        <v>0.1</v>
+        <v>0.3</v>
+      </c>
+      <c r="AP5" s="3">
+        <v>0.2</v>
       </c>
       <c r="AQ5" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AR5" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AS5" s="4">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AT5" s="4">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AU5" s="4">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AV5" s="4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AW5" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AX5" s="4">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="4">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AZ5" s="4">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="BA5" s="4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="BB5" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="BC5" s="4">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="4">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="BE5" s="4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="BF5" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BG5" s="4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="BH5" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="BI5" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="BJ5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="BK5" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
       <c r="K6" t="s">
         <v>3</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>4</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="BA6" t="s">
         <v>5</v>
       </c>
     </row>
